--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\git\automatizando_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915CC01A-11FB-4585-A2BA-BEA07305C74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D32426B-2CE7-4796-AF27-B8C123F6A9EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Rafael</t>
-  </si>
-  <si>
-    <t>Afonso</t>
   </si>
 </sst>
 </file>
@@ -354,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,14 +378,6 @@
         <v>38991801928</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>38991801928</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
